--- a/house_price.xlsx
+++ b/house_price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dukesjmuedu-my.sharepoint.com/personal/carls2ra_dukes_jmu_edu/Documents/Machine Learning/Lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dukesjmuedu-my.sharepoint.com/personal/carls2ra_dukes_jmu_edu/Documents/Machine Learning/Lab 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
